--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Documents\GitHub\root\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11685"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11685"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
     <sheet name="Lists" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>DATO</t>
   </si>
@@ -39,15 +34,9 @@
     <t xml:space="preserve">TODO </t>
   </si>
   <si>
-    <t>PRCPP - Mandatory Handin 4</t>
-  </si>
-  <si>
     <t>SAD Exam</t>
   </si>
   <si>
-    <t>SA Group Project Phase 1</t>
-  </si>
-  <si>
     <t>SA Individual Assignment Phase 1</t>
   </si>
   <si>
@@ -75,16 +64,10 @@
     <t>DEADLINE/MØDE</t>
   </si>
   <si>
-    <t>Møde SA Group Project @ Statens Serum Institut kl. 17:00</t>
-  </si>
-  <si>
     <t>Lav SAD læseplan med gruppe</t>
   </si>
   <si>
     <t>Lav detaljeret læseplan for eksamen (!)</t>
-  </si>
-  <si>
-    <t>Møde SA Group Project @ Statens Serum Institut kl. 10:00</t>
   </si>
   <si>
     <t>FI @ Bredgade kl. 09:00
@@ -98,10 +81,31 @@
     <t>- Document design decisions</t>
   </si>
   <si>
-    <t>FI @ Bredgade indtil 19:00</t>
-  </si>
-  <si>
     <t>FI @ Bredgade kl. 09:00</t>
+  </si>
+  <si>
+    <t>ITU: AD Exam forberedelse</t>
+  </si>
+  <si>
+    <t>ITU: AD Exam forberedelse
+Møde SA Group Project @ Statens Serum Institut kl. 17:00</t>
+  </si>
+  <si>
+    <t>ITU: AD Exam forberedelse?</t>
+  </si>
+  <si>
+    <t>Møde SA Group Project @ Statens Serum Institut kl. 10:00
+SA Group Project Phase 1 DEADLINE</t>
+  </si>
+  <si>
+    <t>FI @ Bredgade hele dagen indtil 19:00</t>
+  </si>
+  <si>
+    <t>FI @ Bredgade 13:00-19:00</t>
+  </si>
+  <si>
+    <t>PRCPP - Mandatory Handin 4
+FI @ Bredgade hele dagen indtil 19:00</t>
   </si>
 </sst>
 </file>
@@ -314,6 +318,33 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -322,33 +353,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,7 +626,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -632,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -644,12 +648,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="2:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:5" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -657,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>2</v>
@@ -670,247 +674,257 @@
       <c r="B5" s="4">
         <v>42286</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>42287</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>42288</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>42289</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="14" t="s">
+      <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>18</v>
+      <c r="D8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>42290</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>21</v>
+      <c r="C9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>42291</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="2:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="2:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>42292</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>22</v>
+      <c r="C11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>42293</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+      <c r="C12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="2:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>42294</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="2:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>42295</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="14"/>
+      <c r="C14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>42296</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="16"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>42297</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>42298</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="16"/>
+      <c r="C17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>42299</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="C18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>42300</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+      <c r="C19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>42301</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <v>42302</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>42303</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>42304</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="C23" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>42305</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="2:5" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <v>42306</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="16"/>
+      <c r="C25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>42307</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <v>42308</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
     </row>
     <row r="28" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>42309</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="2:5" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6">
         <v>42310</v>
       </c>
-      <c r="C29" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="18"/>
+      <c r="C29" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -948,32 +962,32 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
